--- a/Lb2/LB2.xlsx
+++ b/Lb2/LB2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="21075" windowHeight="13365" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="21075" windowHeight="13365"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1" sheetId="1" r:id="rId1"/>
@@ -150,8 +150,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0000\ _₽"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000\ _₽"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -213,15 +213,15 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2307,7 +2307,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11083724498602217"/>
+          <c:y val="5.0810864286618372E-2"/>
+          <c:w val="0.85860165808717281"/>
+          <c:h val="0.73636835803437239"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2746,14 +2756,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:colOff>37686</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:colOff>628236</xdr:colOff>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2777,16 +2787,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10354</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>17394</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>258003</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>116371</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3075,8 +3085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J34"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3093,11 +3103,11 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -3828,12 +3838,12 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3852,8 +3862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M703"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3887,10 +3897,10 @@
         <f>AVERAGE(A4:A703)</f>
         <v>-5.0315259613261665</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="6"/>
       <c r="I4" t="s">
         <v>32</v>
       </c>
@@ -3921,8 +3931,8 @@
         <f>AVERAGE(A4:A703)</f>
         <v>-5.0315259613261665</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
       <c r="J5" t="s">
         <v>38</v>
       </c>
@@ -3950,10 +3960,10 @@
         <f>_xlfn.VAR.S(A4:A703)</f>
         <v>2.0053856578314364</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>-5.0315259613261665</v>
       </c>
     </row>
@@ -3968,10 +3978,10 @@
         <f>_xlfn.STDEV.S(A4:A703)</f>
         <v>1.4161163998172737</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>5.3524168877665999E-2</v>
       </c>
     </row>
@@ -3986,10 +3996,10 @@
         <f>KURT(A4:A703)</f>
         <v>2.7353734849820532</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>-4.9781565912703396</v>
       </c>
       <c r="I8" t="s">
@@ -4022,10 +4032,10 @@
         <f>SKEW(A4:A703)</f>
         <v>3.0621323078981896E-2</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="5" t="e">
+      <c r="G9" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="J9" t="s">
@@ -4048,10 +4058,10 @@
       <c r="A10">
         <v>-6.49353536231179</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>1.4161163998172737</v>
       </c>
     </row>
@@ -4059,10 +4069,10 @@
       <c r="A11">
         <v>-6.2066871580651801</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>2.0053856578314364</v>
       </c>
     </row>
@@ -4070,10 +4080,10 @@
       <c r="A12">
         <v>-5.7751447021783804</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>2.7353734849820532</v>
       </c>
     </row>
@@ -4081,10 +4091,10 @@
       <c r="A13">
         <v>-4.18111922185859</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>3.0621323078981896E-2</v>
       </c>
     </row>
@@ -4092,10 +4102,10 @@
       <c r="A14">
         <v>-5.6235987265943201</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>12.48626074050118</v>
       </c>
     </row>
@@ -4103,10 +4113,10 @@
       <c r="A15">
         <v>-5.3295269018143596</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>-10.5050519916322</v>
       </c>
     </row>
@@ -4114,10 +4124,10 @@
       <c r="A16">
         <v>-3.6032916505789299</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>1.98120874886898</v>
       </c>
     </row>
@@ -4125,10 +4135,10 @@
       <c r="A17">
         <v>-4.4039269242189798</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>-3522.0681729283165</v>
       </c>
     </row>
@@ -4136,10 +4146,10 @@
       <c r="A18">
         <v>-5.75080717126359</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>700</v>
       </c>
     </row>
